--- a/data/trans_dic/P1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 10,99</t>
+          <t>5,55; 10,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 14,73</t>
+          <t>8,28; 14,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 25,96</t>
+          <t>17,6; 26,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,28; 21,08</t>
+          <t>14,11; 21,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 13,05</t>
+          <t>6,54; 13,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 17,78</t>
+          <t>9,23; 17,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 18,85</t>
+          <t>10,37; 18,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,61</t>
+          <t>13,91; 19,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,64</t>
+          <t>6,71; 10,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 14,64</t>
+          <t>9,49; 14,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 21,52</t>
+          <t>15,54; 21,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,38</t>
+          <t>14,83; 19,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 16,14</t>
+          <t>9,01; 16,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,24</t>
+          <t>6,25; 12,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,4</t>
+          <t>7,34; 13,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 22,68</t>
+          <t>15,39; 22,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,51</t>
+          <t>4,98; 10,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 11,06</t>
+          <t>4,98; 11,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 16,79</t>
+          <t>9,13; 16,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 17,28</t>
+          <t>11,34; 17,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 12,49</t>
+          <t>7,86; 12,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,78</t>
+          <t>6,45; 10,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 14,08</t>
+          <t>9,15; 14,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 19,0</t>
+          <t>13,98; 18,79</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 8,09</t>
+          <t>3,85; 8,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,93</t>
+          <t>5,85; 10,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 19,98</t>
+          <t>4,35; 19,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 10,86</t>
+          <t>3,62; 11,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 15,23</t>
+          <t>7,59; 15,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 23,46</t>
+          <t>10,62; 23,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 25,91</t>
+          <t>16,68; 26,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,75</t>
+          <t>4,22; 7,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,14</t>
+          <t>7,12; 11,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,96; 15,06</t>
+          <t>9,64; 15,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 20,14</t>
+          <t>5,86; 20,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,29</t>
+          <t>5,41; 8,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,78</t>
+          <t>7,2; 10,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,49</t>
+          <t>8,7; 12,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 21,54</t>
+          <t>16,76; 21,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,18</t>
+          <t>5,46; 9,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,32</t>
+          <t>3,87; 7,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,54</t>
+          <t>10,57; 15,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 15,4</t>
+          <t>5,88; 15,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 8,05</t>
+          <t>5,81; 8,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 8,67</t>
+          <t>6,31; 8,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,05; 12,98</t>
+          <t>10,17; 13,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 17,73</t>
+          <t>10,8; 17,8</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 13,91</t>
+          <t>7,26; 13,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,78</t>
+          <t>5,63; 10,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,29; 18,08</t>
+          <t>12,2; 18,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,19; 26,73</t>
+          <t>19,13; 26,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,13</t>
+          <t>6,28; 10,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 13,12</t>
+          <t>8,3; 12,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,21; 14,14</t>
+          <t>9,15; 14,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,69; 21,53</t>
+          <t>13,97; 21,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,91</t>
+          <t>7,29; 11,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,36</t>
+          <t>7,85; 11,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,35; 15,02</t>
+          <t>11,39; 15,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,66; 22,61</t>
+          <t>16,4; 22,5</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,8</t>
+          <t>0,91; 4,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,32</t>
+          <t>1,2; 5,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,15</t>
+          <t>5,6; 12,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 14,21</t>
+          <t>1,97; 15,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,92; 12,56</t>
+          <t>8,84; 12,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,49; 14,36</t>
+          <t>10,42; 14,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 16,54</t>
+          <t>11,84; 16,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,38; 23,07</t>
+          <t>17,96; 22,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 10,58</t>
+          <t>7,38; 10,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 12,31</t>
+          <t>8,88; 12,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 15,02</t>
+          <t>11,14; 15,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,81; 19,18</t>
+          <t>14,75; 19,31</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 8,25</t>
+          <t>6,42; 8,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 9,37</t>
+          <t>7,29; 9,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,35; 13,63</t>
+          <t>11,35; 13,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,89</t>
+          <t>13,11; 18,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,76</t>
+          <t>7,89; 9,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,9; 10,99</t>
+          <t>8,93; 10,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 14,52</t>
+          <t>12,13; 14,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,99; 18,07</t>
+          <t>13,49; 17,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 8,83</t>
+          <t>7,39; 8,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,48; 10,0</t>
+          <t>8,49; 9,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,06; 13,67</t>
+          <t>12,08; 13,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,39; 18,01</t>
+          <t>14,52; 18,04</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares unipersonales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37531</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>49040</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>92630</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>87436</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28536</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40717</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>49692</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>74253</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66067</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>89757</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>142321</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>161689</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>26280; 51794</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36207; 63398</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>75526; 114566</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>71299; 108194</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20055; 39940</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29039; 54663</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35998; 63870</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62257; 87664</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52363; 83705</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71302; 109485</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>120595; 167227</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>141298; 184581</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45101</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36873</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37922</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>83807</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>27402</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26251</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47433</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54010</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>72503</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63124</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>85355</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>137817</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33074; 59972</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26178; 52148</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27705; 51985</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>69617; 101285</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18526; 38650</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16827; 37323</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34001; 60939</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43373; 65161</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>58106; 91801</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>48832; 82535</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>68615; 105258</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>116739; 156830</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30524</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>55602</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>80180</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10877</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29191</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27810</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>35211</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41401</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>79521</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>83411</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>115391</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20868; 43507</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36802; 67593</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42553; 70691</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29091; 133619</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6067; 19376</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19755; 40956</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17644; 39569</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27845; 44368</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29992; 55494</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>63350; 100683</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66335; 103407</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>48922; 170875</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>82894</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>100852</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>119947</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>197587</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>51460</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>41463</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>106795</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>112952</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>134354</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>142316</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>226742</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>310539</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66953; 101498</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83486; 123568</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>99966; 142829</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>173430; 224375</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>39006; 65970</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29642; 56675</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>87320; 127427</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>57531; 151670</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>113354; 157711</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>121551; 167993</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>200837; 257111</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>217435; 358331</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35492</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40466</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>92887</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>108619</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47415</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>80239</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>84521</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>157191</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>82907</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>120705</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>177408</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>265811</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25462; 48487</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28726; 53542</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75735; 112404</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>90867; 127783</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35736; 61121</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>63222; 96932</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>67586; 104149</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>117543; 182060</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>67007; 102024</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>99851; 143045</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>154734; 204416</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>215918; 296220</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7106</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7505</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>24136</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11965</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>130441</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>136226</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>151748</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>156432</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>137548</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>143731</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>175884</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>168397</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2724; 13927</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3189; 14409</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16088; 35582</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4749; 38262</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>110370; 154796</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>115625; 160299</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>128147; 179164</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>136756; 174833</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>114216; 160141</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>122245; 169231</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>152484; 205464</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>147827; 193434</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1105</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>238649</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>285066</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>423124</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>569593</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>296132</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>354087</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>467998</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>590050</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>534781</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>639153</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>891121</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1159643</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>209937; 270930</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>249558; 322603</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>384169; 463953</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>442701; 633167</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>266389; 331430</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>316939; 390171</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>428406; 516185</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>482538; 643790</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>491032; 578056</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>591893; 688869</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>835690; 951913</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1009593; 1254433</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
